--- a/1_Phần cứng/đặt hàng/ATSH_DS_LK_HopThietBi_20220408.xlsx
+++ b/1_Phần cứng/đặt hàng/ATSH_DS_LK_HopThietBi_20220408.xlsx
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Link sản phẩm</t>
   </si>
   <si>
-    <t>2GB RAM</t>
-  </si>
-  <si>
     <t>cái</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>https://shopee.vn/T%E1%BB%A7-%C4%91i%E1%BB%87n-nh%E1%BB%B1a-ABS-ch%E1%BB%91ng-n%C6%B0%E1%BB%9Bc-IP67-20x30x15-BOXCO-i.43673952.6826123419</t>
   </si>
   <si>
-    <t>Hộp nút nhấn 2 lỗ GOP-2A-YW</t>
-  </si>
-  <si>
-    <t>https://thietbicodien.com.vn/san-pham/hop-nut-nhan-2-lo-phi-22-25-30/#desc</t>
-  </si>
-  <si>
     <t>phi 22</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>Connector</t>
   </si>
   <si>
@@ -301,6 +289,33 @@
   </si>
   <si>
     <t>Mainboard</t>
+  </si>
+  <si>
+    <t>Cảm biến công tắc từ MC-38 (cảm biến mở cữa)</t>
+  </si>
+  <si>
+    <t>MC-38</t>
+  </si>
+  <si>
+    <t>Sersor</t>
+  </si>
+  <si>
+    <t>https://www.cytrontech.vn/c-sensor/p-mc-38-magnetic-contact-switch-sensor</t>
+  </si>
+  <si>
+    <t>CT01.PIR 300W</t>
+  </si>
+  <si>
+    <t>Công tắc cảm biến chuyển động hồng ngoại (Rạng đông)</t>
+  </si>
+  <si>
+    <t>https://rangdongstore.vn/cong-tac-cam-bien-ct01pir-300w</t>
+  </si>
+  <si>
+    <t>cần gấp trước ngày 25/4/2022</t>
+  </si>
+  <si>
+    <t>8GB RAM</t>
   </si>
 </sst>
 </file>
@@ -446,7 +461,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,6 +472,8 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,18 +779,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -811,31 +828,33 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
-        <v>1550000</v>
+        <v>1700000</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:H20" si="0">G5*E5</f>
-        <v>1550000</v>
-      </c>
-      <c r="I5" s="1"/>
+        <f t="shared" ref="H5:H21" si="0">G5*E5</f>
+        <v>1700000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -843,19 +862,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>320000</v>
@@ -866,7 +885,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -874,30 +893,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
-        <v>88000</v>
+        <v>30000</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>30000</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
+      <c r="J7" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -905,30 +924,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" s="5">
-        <v>12000</v>
+        <v>213000</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>213000</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
+      <c r="J8" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -936,30 +955,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5">
-        <v>3900</v>
+        <v>12000</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>180000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -967,30 +986,30 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
-        <v>28000</v>
+        <v>3900</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>15600</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -998,30 +1017,30 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5">
         <v>28000</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>2800</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1029,30 +1048,30 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5">
-        <v>330000</v>
+        <v>28000</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>330000</v>
+        <v>28000</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1060,30 +1079,30 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5">
-        <v>50000</v>
+        <v>330000</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>330000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1091,30 +1110,30 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5">
-        <v>29200</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>58400</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
+      <c r="J14" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1122,30 +1141,30 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="5">
-        <v>3000</v>
+        <v>29200</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>58400</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1153,32 +1172,30 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>2964000</v>
+        <v>3000</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>2964000</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1186,30 +1203,32 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="5">
-        <v>60000</v>
+        <v>2964000</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>2964000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1217,30 +1236,30 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="5">
-        <v>899000</v>
+        <v>60000</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>899000</v>
+        <v>60000</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1248,30 +1267,30 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="8">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9">
-        <v>14000</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="0"/>
-        <v>280000</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>899000</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>899000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1279,48 +1298,79 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1530</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>1530</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="9">
+        <v>14000</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>280000</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7">
-        <f>SUM(H5:H20)</f>
-        <v>6773330</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1530</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>45900</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7">
+        <f>SUM(H5:H21)</f>
+        <v>7182700</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1329,9 +1379,12 @@
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
+    <hyperlink ref="J7" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>